--- a/DataAnalyzer/Resources/XLSX/DataAnalyzer.xlsx
+++ b/DataAnalyzer/Resources/XLSX/DataAnalyzer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miyako/Documents/GitHub/DataAnalyzer/DataAnalyzer/Resources/XLSX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61838BB4-0545-D64A-893A-63B8335F220A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AB590F-7D75-3B47-8476-8B17FE8B4299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="1240" windowWidth="26100" windowHeight="16200" xr2:uid="{0F3D1A05-6396-8346-BA70-B3F15A863D0B}"/>
   </bookViews>
@@ -103,8 +103,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="178" formatCode="0;\-0;;@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -179,10 +179,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -585,45 +585,45 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-      <c r="O2" s="5">
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
         <v>0</v>
       </c>
     </row>
